--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="General_Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Predictions_Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Executive_Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders_Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Predictions_Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17,76 +18,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>hawaiian</t>
+  </si>
+  <si>
+    <t>bbq_ckn</t>
+  </si>
+  <si>
+    <t>pepperoni</t>
+  </si>
+  <si>
+    <t>classic_dlx</t>
+  </si>
+  <si>
+    <t>thai_ckn</t>
+  </si>
+  <si>
+    <t>cali_ckn</t>
+  </si>
+  <si>
+    <t>sicilian</t>
+  </si>
+  <si>
+    <t>spicy_ital</t>
+  </si>
+  <si>
+    <t>big_meat</t>
+  </si>
+  <si>
+    <t>southw_ckn</t>
+  </si>
+  <si>
+    <t>brie_carre</t>
+  </si>
+  <si>
+    <t>spinach_supr</t>
+  </si>
+  <si>
+    <t>mediterraneo</t>
+  </si>
+  <si>
+    <t>calabrese</t>
+  </si>
+  <si>
+    <t>spin_pesto</t>
+  </si>
+  <si>
+    <t>soppressata</t>
+  </si>
+  <si>
+    <t>ckn_alfredo</t>
+  </si>
+  <si>
+    <t>green_garden</t>
+  </si>
+  <si>
+    <t>ital_veggie</t>
+  </si>
+  <si>
+    <t>ckn_pesto</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
     <t>Pizzas Sold</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>hawaiian</t>
-  </si>
-  <si>
-    <t>bbq_ckn</t>
-  </si>
-  <si>
-    <t>pepperoni</t>
-  </si>
-  <si>
-    <t>classic_dlx</t>
-  </si>
-  <si>
-    <t>thai_ckn</t>
-  </si>
-  <si>
-    <t>cali_ckn</t>
-  </si>
-  <si>
-    <t>sicilian</t>
-  </si>
-  <si>
-    <t>spicy_ital</t>
-  </si>
-  <si>
-    <t>big_meat</t>
-  </si>
-  <si>
-    <t>southw_ckn</t>
-  </si>
-  <si>
-    <t>brie_carre</t>
-  </si>
-  <si>
-    <t>spinach_supr</t>
-  </si>
-  <si>
-    <t>mediterraneo</t>
-  </si>
-  <si>
-    <t>calabrese</t>
-  </si>
-  <si>
-    <t>spin_pesto</t>
-  </si>
-  <si>
-    <t>soppressata</t>
-  </si>
-  <si>
-    <t>ckn_alfredo</t>
-  </si>
-  <si>
-    <t>green_garden</t>
-  </si>
-  <si>
-    <t>ital_veggie</t>
-  </si>
-  <si>
-    <t>ckn_pesto</t>
   </si>
 </sst>
 </file>
@@ -149,7 +150,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pizzas vendidas por mes</a:t>
+              <a:t>10 most sold pizzas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -166,101 +167,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General_Report!$C$9</c:f>
+              <c:f>Executive_Report!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pizzas Sold</c:v>
+                  <c:v>Quantity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>General_Report!$B$10:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+            <c:strRef>
+              <c:f>Executive_Report!$B$10:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>hawaiian</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>bbq_ckn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>pepperoni</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>classic_dlx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>thai_ckn</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>cali_ckn</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>sicilian</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>spicy_ital</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>big_meat</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>southw_ckn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General_Report!$C$10:$C$21</c:f>
+              <c:f>Executive_Report!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2850</c:v>
+                  <c:v>1704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2712</c:v>
+                  <c:v>1673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2934</c:v>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2924</c:v>
+                  <c:v>1652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2981</c:v>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2775</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3036</c:v>
+                  <c:v>1348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2855</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2664</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2687</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2928</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2679</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,7 +263,6 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="2700000" vert="horz"/>
@@ -355,7 +342,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>10 most sold pizzas</a:t>
+              <a:t>10 least sold pizzas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -372,7 +359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General_Report!$C$26</c:f>
+              <c:f>Executive_Report!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,77 +370,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>General_Report!$B$27:$B$36</c:f>
+              <c:f>Executive_Report!$B$27:$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>hawaiian</c:v>
+                  <c:v>brie_carre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>bbq_ckn</c:v>
+                  <c:v>spinach_supr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>pepperoni</c:v>
+                  <c:v>mediterraneo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>classic_dlx</c:v>
+                  <c:v>calabrese</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>thai_ckn</c:v>
+                  <c:v>spin_pesto</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>cali_ckn</c:v>
+                  <c:v>soppressata</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>sicilian</c:v>
+                  <c:v>ckn_alfredo</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>spicy_ital</c:v>
+                  <c:v>green_garden</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>big_meat</c:v>
+                  <c:v>ital_veggie</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>southw_ckn</c:v>
+                  <c:v>ckn_pesto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General_Report!$C$27:$C$36</c:f>
+              <c:f>Executive_Report!$C$27:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1704</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1673</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1655</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1652</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1595</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1576</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1348</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1340</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1325</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1311</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +534,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>10 least sold pizzas</a:t>
+              <a:t>Pizzas vendidas por mes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -564,88 +551,101 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>General_Report!$C$43</c:f>
+              <c:f>Orders_Report!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity</c:v>
+                  <c:v>Pizzas Sold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>General_Report!$B$44:$B$53</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+            <c:numRef>
+              <c:f>Orders_Report!$B$10:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>brie_carre</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>spinach_supr</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mediterraneo</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>calabrese</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>spin_pesto</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>soppressata</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ckn_alfredo</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>green_garden</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ital_veggie</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ckn_pesto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General_Report!$C$44:$C$53</c:f>
+              <c:f>Orders_Report!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>337</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>643</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>649</c:v>
+                  <c:v>2934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>653</c:v>
+                  <c:v>2924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>664</c:v>
+                  <c:v>2981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>673</c:v>
+                  <c:v>2775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>676</c:v>
+                  <c:v>3036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>680</c:v>
+                  <c:v>2855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680</c:v>
+                  <c:v>2664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>688</c:v>
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,6 +660,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="2700000" vert="horz"/>
@@ -787,36 +788,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -830,7 +801,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -875,7 +846,7 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>GENERAL REPORT</a:t>
+            <a:t>EXECUTIVE REPORT</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -886,6 +857,108 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="190500"/>
+          <a:ext cx="4876800" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ORDERS REPORT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1779,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B9:C53"/>
+  <dimension ref="B9:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,274 +1867,170 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2850</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2712</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2934</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="s">
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2924</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2981</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15">
-        <v>6</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>2775</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16">
-        <v>7</v>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>3036</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17">
-        <v>8</v>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>2855</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18">
-        <v>9</v>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>2664</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>2679</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>1704</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>1673</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>1652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>1595</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>1576</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>1348</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>1340</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>1325</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53">
         <v>688</v>
       </c>
     </row>
@@ -2072,6 +2041,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B9:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
